--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H2">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J2">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N2">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P2">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q2">
-        <v>58.42598751752666</v>
+        <v>37.99262148379599</v>
       </c>
       <c r="R2">
-        <v>525.83388765774</v>
+        <v>341.933593354164</v>
       </c>
       <c r="S2">
-        <v>0.0250381579499293</v>
+        <v>0.01929717351519958</v>
       </c>
       <c r="T2">
-        <v>0.0250381579499293</v>
+        <v>0.01929717351519958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H3">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J3">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P3">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q3">
-        <v>274.4947006480564</v>
+        <v>231.839751786202</v>
       </c>
       <c r="R3">
-        <v>2470.452305832508</v>
+        <v>2086.557766075818</v>
       </c>
       <c r="S3">
-        <v>0.1176332992092411</v>
+        <v>0.1177558100287251</v>
       </c>
       <c r="T3">
-        <v>0.1176332992092411</v>
+        <v>0.1177558100287251</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H4">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J4">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N4">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P4">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q4">
-        <v>38.65933269313112</v>
+        <v>36.355857741952</v>
       </c>
       <c r="R4">
-        <v>347.93399423818</v>
+        <v>327.202719677568</v>
       </c>
       <c r="S4">
-        <v>0.01656725918272437</v>
+        <v>0.01846583014650833</v>
       </c>
       <c r="T4">
-        <v>0.01656725918272437</v>
+        <v>0.01846583014650832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.03634266666667</v>
+        <v>68.443746</v>
       </c>
       <c r="H5">
-        <v>243.109028</v>
+        <v>205.331238</v>
       </c>
       <c r="I5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="J5">
-        <v>0.1632931649012984</v>
+        <v>0.1596169534001499</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N5">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P5">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q5">
-        <v>9.460965994219112</v>
+        <v>8.068490997210001</v>
       </c>
       <c r="R5">
-        <v>85.14869394797201</v>
+        <v>72.61641897489001</v>
       </c>
       <c r="S5">
-        <v>0.00405444855940359</v>
+        <v>0.004098139709716882</v>
       </c>
       <c r="T5">
-        <v>0.00405444855940359</v>
+        <v>0.004098139709716881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>535.097442</v>
       </c>
       <c r="I6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J6">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N6">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P6">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q6">
-        <v>128.59907640679</v>
+        <v>99.00955533543065</v>
       </c>
       <c r="R6">
-        <v>1157.39168766111</v>
+        <v>891.0859980188759</v>
       </c>
       <c r="S6">
-        <v>0.0551104760757759</v>
+        <v>0.05028883226142845</v>
       </c>
       <c r="T6">
-        <v>0.05511047607577592</v>
+        <v>0.05028883226142845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>535.097442</v>
       </c>
       <c r="I7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J7">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P7">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q7">
         <v>604.1791757701847</v>
@@ -883,10 +883,10 @@
         <v>5437.612581931662</v>
       </c>
       <c r="S7">
-        <v>0.2589178938302757</v>
+        <v>0.3068740701159595</v>
       </c>
       <c r="T7">
-        <v>0.2589178938302758</v>
+        <v>0.3068740701159594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>535.097442</v>
       </c>
       <c r="I8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J8">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N8">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P8">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q8">
-        <v>85.09149250319668</v>
+        <v>94.74411525943466</v>
       </c>
       <c r="R8">
-        <v>765.8234325287701</v>
+        <v>852.697037334912</v>
       </c>
       <c r="S8">
-        <v>0.03646552364820783</v>
+        <v>0.04812233429286141</v>
       </c>
       <c r="T8">
-        <v>0.03646552364820783</v>
+        <v>0.0481223342928614</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>535.097442</v>
       </c>
       <c r="I9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="J9">
-        <v>0.3594179761796791</v>
+        <v>0.4159650732941736</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N9">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P9">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q9">
-        <v>20.82414932922867</v>
+        <v>21.02665398339</v>
       </c>
       <c r="R9">
-        <v>187.417343963058</v>
+        <v>189.23988585051</v>
       </c>
       <c r="S9">
-        <v>0.008924082625419594</v>
+        <v>0.01067983662392434</v>
       </c>
       <c r="T9">
-        <v>0.008924082625419596</v>
+        <v>0.01067983662392434</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H10">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J10">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N10">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P10">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q10">
-        <v>65.34318201551997</v>
+        <v>49.33856145973221</v>
       </c>
       <c r="R10">
-        <v>588.0886381396798</v>
+        <v>444.0470531375899</v>
       </c>
       <c r="S10">
-        <v>0.02800248625262481</v>
+        <v>0.02505999176405512</v>
       </c>
       <c r="T10">
-        <v>0.02800248625262482</v>
+        <v>0.02505999176405511</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H11">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J11">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P11">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q11">
-        <v>306.9927946251839</v>
+        <v>301.0752981915505</v>
       </c>
       <c r="R11">
-        <v>2762.935151626656</v>
+        <v>2709.677683723955</v>
       </c>
       <c r="S11">
-        <v>0.131560191070964</v>
+        <v>0.1529218580723826</v>
       </c>
       <c r="T11">
-        <v>0.131560191070964</v>
+        <v>0.1529218580723826</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H12">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J12">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N12">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P12">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q12">
-        <v>43.23630494064</v>
+        <v>47.21300219800889</v>
       </c>
       <c r="R12">
-        <v>389.12674446576</v>
+        <v>424.91701978208</v>
       </c>
       <c r="S12">
-        <v>0.01852869721629107</v>
+        <v>0.02398037987394618</v>
       </c>
       <c r="T12">
-        <v>0.01852869721629108</v>
+        <v>0.02398037987394618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.63043199999998</v>
+        <v>88.88346833333333</v>
       </c>
       <c r="H13">
-        <v>271.891296</v>
+        <v>266.650405</v>
       </c>
       <c r="I13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="J13">
-        <v>0.1826258391068707</v>
+        <v>0.2072842188241036</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N13">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P13">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q13">
-        <v>10.581072725856</v>
+        <v>10.478027664475</v>
       </c>
       <c r="R13">
-        <v>95.22965453270399</v>
+        <v>94.302248980275</v>
       </c>
       <c r="S13">
-        <v>0.004534464566990802</v>
+        <v>0.0053219891137197</v>
       </c>
       <c r="T13">
-        <v>0.004534464566990803</v>
+        <v>0.005321989113719699</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H14">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J14">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7209849999999999</v>
+        <v>0.5550926666666666</v>
       </c>
       <c r="N14">
-        <v>2.162955</v>
+        <v>1.665278</v>
       </c>
       <c r="O14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="P14">
-        <v>0.1533325535399077</v>
+        <v>0.1208967663154349</v>
       </c>
       <c r="Q14">
-        <v>105.4298747153783</v>
+        <v>51.68298460560732</v>
       </c>
       <c r="R14">
-        <v>948.8688724384049</v>
+        <v>465.146861450466</v>
       </c>
       <c r="S14">
-        <v>0.04518143326157766</v>
+        <v>0.02625076877475172</v>
       </c>
       <c r="T14">
-        <v>0.04518143326157766</v>
+        <v>0.02625076877475172</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H15">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J15">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>10.161911</v>
       </c>
       <c r="O15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530269</v>
       </c>
       <c r="P15">
-        <v>0.7203810354238886</v>
+        <v>0.7377399926530268</v>
       </c>
       <c r="Q15">
-        <v>495.3265341159779</v>
+        <v>315.3815097398463</v>
       </c>
       <c r="R15">
-        <v>4457.938807043801</v>
+        <v>2838.433587658617</v>
       </c>
       <c r="S15">
-        <v>0.2122696513134078</v>
+        <v>0.1601882544359597</v>
       </c>
       <c r="T15">
-        <v>0.2122696513134078</v>
+        <v>0.1601882544359597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H16">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J16">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4770616666666667</v>
+        <v>0.5311786666666667</v>
       </c>
       <c r="N16">
-        <v>1.431185</v>
+        <v>1.593536</v>
       </c>
       <c r="O16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="P16">
-        <v>0.1014571503512615</v>
+        <v>0.1156884012202364</v>
       </c>
       <c r="Q16">
-        <v>69.76088510603724</v>
+        <v>49.45642502722134</v>
       </c>
       <c r="R16">
-        <v>627.8479659543351</v>
+        <v>445.1078252449921</v>
       </c>
       <c r="S16">
-        <v>0.02989567030403825</v>
+        <v>0.02511985690692051</v>
       </c>
       <c r="T16">
-        <v>0.02989567030403825</v>
+        <v>0.02511985690692051</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>146.2303303333333</v>
+        <v>93.106949</v>
       </c>
       <c r="H17">
-        <v>438.690991</v>
+        <v>279.320847</v>
       </c>
       <c r="I17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="J17">
-        <v>0.2946630198121519</v>
+        <v>0.2171337544815728</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1167496666666667</v>
+        <v>0.117885</v>
       </c>
       <c r="N17">
-        <v>0.350249</v>
+        <v>0.353655</v>
       </c>
       <c r="O17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="P17">
-        <v>0.02482926068494219</v>
+        <v>0.02567483981130185</v>
       </c>
       <c r="Q17">
-        <v>17.07234232297322</v>
+        <v>10.975912682865</v>
       </c>
       <c r="R17">
-        <v>153.651080906759</v>
+        <v>98.78321414578501</v>
       </c>
       <c r="S17">
-        <v>0.007316264933128206</v>
+        <v>0.005574874363940929</v>
       </c>
       <c r="T17">
-        <v>0.007316264933128206</v>
+        <v>0.005574874363940928</v>
       </c>
     </row>
   </sheetData>
